--- a/จัดทำโครงการ/ตาราง-แผนการดำเนินงาน_เทคโลโลยีดิจิตอล_v2.xlsx
+++ b/จัดทำโครงการ/ตาราง-แผนการดำเนินงาน_เทคโลโลยีดิจิตอล_v2.xlsx
@@ -446,7 +446,7 @@
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -454,6 +454,12 @@
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="TH SarabunPSK"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="16"/>
@@ -754,252 +760,255 @@
   </borders>
   <cellStyleXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="40">
@@ -1312,7 +1321,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1323,10 +1332,10 @@
   <dimension ref="A1:S74"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="D34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C40" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F39" sqref="F39"/>
+      <selection pane="bottomRight" activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" x14ac:dyDescent="0"/>
@@ -1347,27 +1356,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
     </row>
     <row r="2" spans="1:19" s="46" customFormat="1" ht="20">
       <c r="A2" s="44" t="s">
@@ -1401,30 +1410,30 @@
       <c r="B3" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="57" t="s">
+      <c r="C3" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="57"/>
-      <c r="E3" s="59" t="s">
+      <c r="D3" s="70"/>
+      <c r="E3" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="F3" s="59"/>
+      <c r="F3" s="71"/>
       <c r="G3" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="54" t="s">
+      <c r="H3" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="54"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="68"/>
+      <c r="Q3" s="68"/>
+      <c r="R3" s="68"/>
       <c r="S3" s="33" t="s">
         <v>21</v>
       </c>
@@ -1432,16 +1441,16 @@
     <row r="4" spans="1:19" s="47" customFormat="1" ht="25">
       <c r="A4" s="31"/>
       <c r="B4" s="31"/>
-      <c r="C4" s="58" t="s">
+      <c r="C4" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="58" t="s">
+      <c r="D4" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="58" t="s">
+      <c r="E4" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="58" t="s">
+      <c r="F4" s="55" t="s">
         <v>60</v>
       </c>
       <c r="G4" s="34" t="s">
@@ -1586,51 +1595,51 @@
       <c r="E9" s="23"/>
       <c r="F9" s="23"/>
       <c r="G9" s="53">
-        <f>G11+G17+G28+G51+G61+G65+G67+G69</f>
+        <f t="shared" ref="G9:R9" si="0">G11+G17+G28+G51+G61+G65+G67+G69</f>
         <v>15888000000</v>
       </c>
       <c r="H9" s="53">
-        <f>H11+H17+H28+H51+H61+H65+H67+H69</f>
+        <f t="shared" si="0"/>
         <v>10000000</v>
       </c>
       <c r="I9" s="53">
-        <f>I11+I17+I28+I51+I61+I65+I67+I69</f>
+        <f t="shared" si="0"/>
         <v>668000000</v>
       </c>
       <c r="J9" s="53">
-        <f>J11+J17+J28+J51+J61+J65+J67+J69</f>
+        <f t="shared" si="0"/>
         <v>2209000000</v>
       </c>
       <c r="K9" s="53">
-        <f>K11+K17+K28+K51+K61+K65+K67+K69</f>
+        <f t="shared" si="0"/>
         <v>1372000000</v>
       </c>
       <c r="L9" s="53">
-        <f>L11+L17+L28+L51+L61+L65+L67+L69</f>
+        <f t="shared" si="0"/>
         <v>1151000000</v>
       </c>
       <c r="M9" s="53">
-        <f>M11+M17+M28+M51+M61+M65+M67+M69</f>
+        <f t="shared" si="0"/>
         <v>1046000000</v>
       </c>
       <c r="N9" s="53">
-        <f>N11+N17+N28+N51+N61+N65+N67+N69</f>
+        <f t="shared" si="0"/>
         <v>1046000000</v>
       </c>
       <c r="O9" s="53">
-        <f>O11+O17+O28+O51+O61+O65+O67+O69</f>
+        <f t="shared" si="0"/>
         <v>1046000000</v>
       </c>
       <c r="P9" s="53">
-        <f>P11+P17+P28+P51+P61+P65+P67+P69</f>
+        <f t="shared" si="0"/>
         <v>920000000</v>
       </c>
       <c r="Q9" s="53">
-        <f>Q11+Q17+Q28+Q51+Q61+Q65+Q67+Q69</f>
+        <f t="shared" si="0"/>
         <v>920000000</v>
       </c>
       <c r="R9" s="53">
-        <f>R11+R17+R28+R51+R61+R65+R67+R69</f>
+        <f t="shared" si="0"/>
         <v>5500000000</v>
       </c>
       <c r="S9" s="25"/>
@@ -1672,35 +1681,35 @@
         <v>335000000</v>
       </c>
       <c r="H11" s="40">
-        <f>SUM(H12:H16)</f>
+        <f t="shared" ref="H11:O11" si="1">SUM(H12:H16)</f>
         <v>0</v>
       </c>
       <c r="I11" s="40">
-        <f>SUM(I12:I16)</f>
+        <f t="shared" si="1"/>
         <v>110000000</v>
       </c>
       <c r="J11" s="40">
-        <f>SUM(J12:J16)</f>
+        <f t="shared" si="1"/>
         <v>165000000</v>
       </c>
       <c r="K11" s="40">
-        <f>SUM(K12:K16)</f>
+        <f t="shared" si="1"/>
         <v>10000000</v>
       </c>
       <c r="L11" s="40">
-        <f>SUM(L12:L16)</f>
+        <f t="shared" si="1"/>
         <v>10000000</v>
       </c>
       <c r="M11" s="40">
-        <f>SUM(M12:M16)</f>
+        <f t="shared" si="1"/>
         <v>10000000</v>
       </c>
       <c r="N11" s="40">
-        <f>SUM(N12:N16)</f>
+        <f t="shared" si="1"/>
         <v>10000000</v>
       </c>
       <c r="O11" s="40">
-        <f>SUM(O12:O16)</f>
+        <f t="shared" si="1"/>
         <v>10000000</v>
       </c>
       <c r="P11" s="40"/>
@@ -1715,46 +1724,46 @@
       <c r="A12" s="4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B12" s="56" t="s">
+      <c r="B12" s="54" t="s">
         <v>112</v>
       </c>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
       <c r="G12" s="41">
         <f>SUM(H12:R12)</f>
         <v>100000000</v>
       </c>
-      <c r="H12" s="66"/>
-      <c r="I12" s="67">
+      <c r="H12" s="62"/>
+      <c r="I12" s="63">
         <v>10000000</v>
       </c>
-      <c r="J12" s="67">
+      <c r="J12" s="63">
         <v>10000000</v>
       </c>
-      <c r="K12" s="67">
+      <c r="K12" s="63">
         <v>10000000</v>
       </c>
-      <c r="L12" s="67">
+      <c r="L12" s="63">
         <v>10000000</v>
       </c>
-      <c r="M12" s="67">
+      <c r="M12" s="63">
         <v>10000000</v>
       </c>
-      <c r="N12" s="67">
+      <c r="N12" s="63">
         <v>10000000</v>
       </c>
-      <c r="O12" s="67">
+      <c r="O12" s="63">
         <v>10000000</v>
       </c>
-      <c r="P12" s="67">
+      <c r="P12" s="63">
         <v>10000000</v>
       </c>
-      <c r="Q12" s="67">
+      <c r="Q12" s="63">
         <v>10000000</v>
       </c>
-      <c r="R12" s="67">
+      <c r="R12" s="63">
         <v>10000000</v>
       </c>
       <c r="S12" s="6"/>
@@ -1763,71 +1772,71 @@
       <c r="A13" s="4">
         <v>1.2</v>
       </c>
-      <c r="B13" s="56" t="s">
+      <c r="B13" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
       <c r="G13" s="41">
-        <f t="shared" ref="G13:G16" si="0">SUM(H13:R13)</f>
+        <f t="shared" ref="G13:G16" si="2">SUM(H13:R13)</f>
         <v>70000000</v>
       </c>
-      <c r="H13" s="66"/>
-      <c r="I13" s="67">
+      <c r="H13" s="62"/>
+      <c r="I13" s="63">
         <v>35000000</v>
       </c>
-      <c r="J13" s="67">
+      <c r="J13" s="63">
         <v>35000000</v>
       </c>
-      <c r="K13" s="66"/>
-      <c r="L13" s="66"/>
-      <c r="M13" s="66"/>
-      <c r="N13" s="66"/>
-      <c r="O13" s="66"/>
-      <c r="P13" s="66"/>
-      <c r="Q13" s="66"/>
-      <c r="R13" s="66"/>
+      <c r="K13" s="62"/>
+      <c r="L13" s="62"/>
+      <c r="M13" s="62"/>
+      <c r="N13" s="62"/>
+      <c r="O13" s="62"/>
+      <c r="P13" s="62"/>
+      <c r="Q13" s="62"/>
+      <c r="R13" s="62"/>
       <c r="S13" s="6"/>
     </row>
     <row r="14" spans="1:19" ht="38">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="56" t="s">
+      <c r="B14" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
       <c r="G14" s="41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>55000000</v>
       </c>
-      <c r="H14" s="66"/>
-      <c r="I14" s="67">
+      <c r="H14" s="62"/>
+      <c r="I14" s="63">
         <v>25000000</v>
       </c>
-      <c r="J14" s="67">
+      <c r="J14" s="63">
         <v>30000000</v>
       </c>
-      <c r="K14" s="66"/>
-      <c r="L14" s="66"/>
-      <c r="M14" s="66"/>
-      <c r="N14" s="66"/>
-      <c r="O14" s="66"/>
-      <c r="P14" s="66"/>
-      <c r="Q14" s="66"/>
-      <c r="R14" s="66"/>
+      <c r="K14" s="62"/>
+      <c r="L14" s="62"/>
+      <c r="M14" s="62"/>
+      <c r="N14" s="62"/>
+      <c r="O14" s="62"/>
+      <c r="P14" s="62"/>
+      <c r="Q14" s="62"/>
+      <c r="R14" s="62"/>
       <c r="S14" s="6"/>
     </row>
     <row r="15" spans="1:19" ht="38">
       <c r="A15" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="56" t="s">
+      <c r="B15" s="54" t="s">
         <v>110</v>
       </c>
       <c r="C15" s="5"/>
@@ -1835,31 +1844,31 @@
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>70000000</v>
       </c>
-      <c r="H15" s="66"/>
-      <c r="I15" s="67">
+      <c r="H15" s="62"/>
+      <c r="I15" s="63">
         <v>30000000</v>
       </c>
-      <c r="J15" s="67">
+      <c r="J15" s="63">
         <v>40000000</v>
       </c>
-      <c r="K15" s="66"/>
-      <c r="L15" s="66"/>
-      <c r="M15" s="66"/>
-      <c r="N15" s="66"/>
-      <c r="O15" s="66"/>
-      <c r="P15" s="66"/>
-      <c r="Q15" s="66"/>
-      <c r="R15" s="66"/>
+      <c r="K15" s="62"/>
+      <c r="L15" s="62"/>
+      <c r="M15" s="62"/>
+      <c r="N15" s="62"/>
+      <c r="O15" s="62"/>
+      <c r="P15" s="62"/>
+      <c r="Q15" s="62"/>
+      <c r="R15" s="62"/>
       <c r="S15" s="6"/>
     </row>
     <row r="16" spans="1:19" ht="57">
       <c r="A16" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="56" t="s">
+      <c r="B16" s="54" t="s">
         <v>109</v>
       </c>
       <c r="C16" s="5"/>
@@ -1867,24 +1876,24 @@
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>60000000</v>
       </c>
-      <c r="H16" s="66"/>
-      <c r="I16" s="67">
+      <c r="H16" s="62"/>
+      <c r="I16" s="63">
         <v>10000000</v>
       </c>
-      <c r="J16" s="67">
+      <c r="J16" s="63">
         <v>50000000</v>
       </c>
-      <c r="K16" s="66"/>
-      <c r="L16" s="66"/>
-      <c r="M16" s="66"/>
-      <c r="N16" s="66"/>
-      <c r="O16" s="66"/>
-      <c r="P16" s="66"/>
-      <c r="Q16" s="66"/>
-      <c r="R16" s="66"/>
+      <c r="K16" s="62"/>
+      <c r="L16" s="62"/>
+      <c r="M16" s="62"/>
+      <c r="N16" s="62"/>
+      <c r="O16" s="62"/>
+      <c r="P16" s="62"/>
+      <c r="Q16" s="62"/>
+      <c r="R16" s="62"/>
       <c r="S16" s="6"/>
     </row>
     <row r="17" spans="1:19" s="47" customFormat="1">
@@ -1903,35 +1912,35 @@
         <v>320000000</v>
       </c>
       <c r="H17" s="42">
-        <f>SUM(H18:H27)</f>
+        <f t="shared" ref="H17:O17" si="3">SUM(H18:H27)</f>
         <v>0</v>
       </c>
       <c r="I17" s="42">
-        <f>SUM(I18:I27)</f>
+        <f t="shared" si="3"/>
         <v>75000000</v>
       </c>
       <c r="J17" s="42">
-        <f>SUM(J18:J27)</f>
+        <f t="shared" si="3"/>
         <v>145000000</v>
       </c>
       <c r="K17" s="42">
-        <f>SUM(K18:K27)</f>
+        <f t="shared" si="3"/>
         <v>100000000</v>
       </c>
       <c r="L17" s="42">
-        <f>SUM(L18:L27)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M17" s="42">
-        <f>SUM(M18:M27)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N17" s="42">
-        <f>SUM(N18:N27)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O17" s="42">
-        <f>SUM(O18:O27)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P17" s="42"/>
@@ -1946,60 +1955,60 @@
       <c r="A18" s="4">
         <v>2.1</v>
       </c>
-      <c r="B18" s="56" t="s">
+      <c r="B18" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
       <c r="G18" s="41">
-        <f t="shared" ref="G18:G27" si="1">SUM(H18:R18)</f>
+        <f t="shared" ref="G18:G27" si="4">SUM(H18:R18)</f>
         <v>45000000</v>
       </c>
       <c r="H18" s="41"/>
-      <c r="I18" s="66">
+      <c r="I18" s="62">
         <v>45000000</v>
       </c>
-      <c r="J18" s="66"/>
-      <c r="K18" s="66"/>
-      <c r="L18" s="66"/>
-      <c r="M18" s="66"/>
-      <c r="N18" s="66"/>
-      <c r="O18" s="66"/>
-      <c r="P18" s="66"/>
-      <c r="Q18" s="66"/>
-      <c r="R18" s="66"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="62"/>
+      <c r="L18" s="62"/>
+      <c r="M18" s="62"/>
+      <c r="N18" s="62"/>
+      <c r="O18" s="62"/>
+      <c r="P18" s="62"/>
+      <c r="Q18" s="62"/>
+      <c r="R18" s="62"/>
       <c r="S18" s="6"/>
     </row>
     <row r="19" spans="1:19" ht="38">
       <c r="A19" s="4">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B19" s="56" t="s">
+      <c r="B19" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="56"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="54"/>
       <c r="G19" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>25000000</v>
       </c>
       <c r="H19" s="41"/>
-      <c r="I19" s="66"/>
-      <c r="J19" s="66">
+      <c r="I19" s="62"/>
+      <c r="J19" s="62">
         <v>25000000</v>
       </c>
-      <c r="K19" s="66"/>
-      <c r="L19" s="66"/>
-      <c r="M19" s="66"/>
-      <c r="N19" s="66"/>
-      <c r="O19" s="66"/>
-      <c r="P19" s="66"/>
-      <c r="Q19" s="66"/>
-      <c r="R19" s="66"/>
+      <c r="K19" s="62"/>
+      <c r="L19" s="62"/>
+      <c r="M19" s="62"/>
+      <c r="N19" s="62"/>
+      <c r="O19" s="62"/>
+      <c r="P19" s="62"/>
+      <c r="Q19" s="62"/>
+      <c r="R19" s="62"/>
       <c r="S19" s="6"/>
     </row>
     <row r="20" spans="1:19">
@@ -2014,82 +2023,82 @@
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>15000000</v>
       </c>
       <c r="H20" s="41"/>
-      <c r="I20" s="66"/>
-      <c r="J20" s="66">
+      <c r="I20" s="62"/>
+      <c r="J20" s="62">
         <v>15000000</v>
       </c>
-      <c r="K20" s="66"/>
-      <c r="L20" s="66"/>
-      <c r="M20" s="66"/>
-      <c r="N20" s="66"/>
-      <c r="O20" s="66"/>
-      <c r="P20" s="66"/>
-      <c r="Q20" s="66"/>
-      <c r="R20" s="66"/>
+      <c r="K20" s="62"/>
+      <c r="L20" s="62"/>
+      <c r="M20" s="62"/>
+      <c r="N20" s="62"/>
+      <c r="O20" s="62"/>
+      <c r="P20" s="62"/>
+      <c r="Q20" s="62"/>
+      <c r="R20" s="62"/>
       <c r="S20" s="6"/>
     </row>
     <row r="21" spans="1:19">
       <c r="A21" s="4">
         <v>2.7</v>
       </c>
-      <c r="B21" s="56" t="s">
+      <c r="B21" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="56"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="56"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
       <c r="G21" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>35000000</v>
       </c>
       <c r="H21" s="41"/>
-      <c r="I21" s="66"/>
-      <c r="J21" s="66">
+      <c r="I21" s="62"/>
+      <c r="J21" s="62">
         <v>35000000</v>
       </c>
-      <c r="K21" s="66"/>
-      <c r="L21" s="66"/>
-      <c r="M21" s="66"/>
-      <c r="N21" s="66"/>
-      <c r="O21" s="66"/>
-      <c r="P21" s="66"/>
-      <c r="Q21" s="66"/>
-      <c r="R21" s="66"/>
+      <c r="K21" s="62"/>
+      <c r="L21" s="62"/>
+      <c r="M21" s="62"/>
+      <c r="N21" s="62"/>
+      <c r="O21" s="62"/>
+      <c r="P21" s="62"/>
+      <c r="Q21" s="62"/>
+      <c r="R21" s="62"/>
       <c r="S21" s="6"/>
     </row>
     <row r="22" spans="1:19">
       <c r="A22" s="4">
         <v>2.8</v>
       </c>
-      <c r="B22" s="56" t="s">
+      <c r="B22" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="56"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="56"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
       <c r="G22" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>30000000</v>
       </c>
       <c r="H22" s="41"/>
-      <c r="I22" s="66"/>
-      <c r="J22" s="66">
+      <c r="I22" s="62"/>
+      <c r="J22" s="62">
         <v>30000000</v>
       </c>
-      <c r="K22" s="66"/>
-      <c r="L22" s="66"/>
-      <c r="M22" s="66"/>
-      <c r="N22" s="66"/>
-      <c r="O22" s="66"/>
-      <c r="P22" s="66"/>
-      <c r="Q22" s="66"/>
-      <c r="R22" s="66"/>
+      <c r="K22" s="62"/>
+      <c r="L22" s="62"/>
+      <c r="M22" s="62"/>
+      <c r="N22" s="62"/>
+      <c r="O22" s="62"/>
+      <c r="P22" s="62"/>
+      <c r="Q22" s="62"/>
+      <c r="R22" s="62"/>
       <c r="S22" s="6"/>
     </row>
     <row r="23" spans="1:19" ht="38">
@@ -2104,22 +2113,22 @@
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>40000000</v>
       </c>
       <c r="H23" s="41"/>
-      <c r="I23" s="66"/>
-      <c r="J23" s="66">
+      <c r="I23" s="62"/>
+      <c r="J23" s="62">
         <v>40000000</v>
       </c>
-      <c r="K23" s="66"/>
-      <c r="L23" s="66"/>
-      <c r="M23" s="66"/>
-      <c r="N23" s="66"/>
-      <c r="O23" s="66"/>
-      <c r="P23" s="66"/>
-      <c r="Q23" s="66"/>
-      <c r="R23" s="66"/>
+      <c r="K23" s="62"/>
+      <c r="L23" s="62"/>
+      <c r="M23" s="62"/>
+      <c r="N23" s="62"/>
+      <c r="O23" s="62"/>
+      <c r="P23" s="62"/>
+      <c r="Q23" s="62"/>
+      <c r="R23" s="62"/>
       <c r="S23" s="6"/>
     </row>
     <row r="24" spans="1:19" ht="38">
@@ -2134,76 +2143,76 @@
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>50000000</v>
       </c>
       <c r="H24" s="41"/>
-      <c r="I24" s="66"/>
-      <c r="J24" s="66"/>
-      <c r="K24" s="66">
+      <c r="I24" s="62"/>
+      <c r="J24" s="62"/>
+      <c r="K24" s="62">
         <v>50000000</v>
       </c>
-      <c r="L24" s="66"/>
-      <c r="M24" s="66"/>
-      <c r="N24" s="66"/>
-      <c r="O24" s="66"/>
-      <c r="P24" s="66"/>
-      <c r="Q24" s="66"/>
-      <c r="R24" s="66"/>
+      <c r="L24" s="62"/>
+      <c r="M24" s="62"/>
+      <c r="N24" s="62"/>
+      <c r="O24" s="62"/>
+      <c r="P24" s="62"/>
+      <c r="Q24" s="62"/>
+      <c r="R24" s="62"/>
       <c r="S24" s="6"/>
     </row>
     <row r="25" spans="1:19">
       <c r="A25" s="7"/>
-      <c r="B25" s="56" t="s">
+      <c r="B25" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="56"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="56"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
       <c r="G25" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H25" s="41"/>
-      <c r="I25" s="66"/>
-      <c r="J25" s="66"/>
-      <c r="K25" s="66"/>
-      <c r="L25" s="66"/>
-      <c r="M25" s="66"/>
-      <c r="N25" s="66"/>
-      <c r="O25" s="66"/>
-      <c r="P25" s="66"/>
-      <c r="Q25" s="66"/>
-      <c r="R25" s="66"/>
+      <c r="I25" s="62"/>
+      <c r="J25" s="62"/>
+      <c r="K25" s="62"/>
+      <c r="L25" s="62"/>
+      <c r="M25" s="62"/>
+      <c r="N25" s="62"/>
+      <c r="O25" s="62"/>
+      <c r="P25" s="62"/>
+      <c r="Q25" s="62"/>
+      <c r="R25" s="62"/>
       <c r="S25" s="6"/>
     </row>
     <row r="26" spans="1:19">
       <c r="A26" s="7"/>
-      <c r="B26" s="56" t="s">
+      <c r="B26" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="56"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="56"/>
-      <c r="F26" s="56"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="54"/>
       <c r="G26" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>30000000</v>
       </c>
       <c r="H26" s="41"/>
-      <c r="I26" s="67">
+      <c r="I26" s="63">
         <v>30000000</v>
       </c>
-      <c r="J26" s="66"/>
-      <c r="K26" s="66"/>
-      <c r="L26" s="66"/>
-      <c r="M26" s="66"/>
-      <c r="N26" s="66"/>
-      <c r="O26" s="66"/>
-      <c r="P26" s="66"/>
-      <c r="Q26" s="66"/>
-      <c r="R26" s="66"/>
+      <c r="J26" s="62"/>
+      <c r="K26" s="62"/>
+      <c r="L26" s="62"/>
+      <c r="M26" s="62"/>
+      <c r="N26" s="62"/>
+      <c r="O26" s="62"/>
+      <c r="P26" s="62"/>
+      <c r="Q26" s="62"/>
+      <c r="R26" s="62"/>
       <c r="S26" s="6"/>
     </row>
     <row r="27" spans="1:19">
@@ -2218,22 +2227,22 @@
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>50000000</v>
       </c>
       <c r="H27" s="41"/>
-      <c r="I27" s="66"/>
-      <c r="J27" s="66"/>
-      <c r="K27" s="66">
+      <c r="I27" s="62"/>
+      <c r="J27" s="62"/>
+      <c r="K27" s="62">
         <v>50000000</v>
       </c>
-      <c r="L27" s="66"/>
-      <c r="M27" s="66"/>
-      <c r="N27" s="66"/>
-      <c r="O27" s="66"/>
-      <c r="P27" s="66"/>
-      <c r="Q27" s="66"/>
-      <c r="R27" s="66"/>
+      <c r="L27" s="62"/>
+      <c r="M27" s="62"/>
+      <c r="N27" s="62"/>
+      <c r="O27" s="62"/>
+      <c r="P27" s="62"/>
+      <c r="Q27" s="62"/>
+      <c r="R27" s="62"/>
       <c r="S27" s="6"/>
     </row>
     <row r="28" spans="1:19" s="47" customFormat="1" ht="38">
@@ -2248,39 +2257,39 @@
       <c r="E28" s="27"/>
       <c r="F28" s="27"/>
       <c r="G28" s="42">
-        <f t="shared" ref="G28:G51" si="2">SUM(H28:R28)</f>
+        <f t="shared" ref="G28:G51" si="5">SUM(H28:R28)</f>
         <v>562000000</v>
       </c>
       <c r="H28" s="42">
-        <f>SUM(H29:H50)</f>
+        <f t="shared" ref="H28:O28" si="6">SUM(H29:H50)</f>
         <v>10000000</v>
       </c>
       <c r="I28" s="42">
-        <f>SUM(I29:I50)</f>
+        <f t="shared" si="6"/>
         <v>78000000</v>
       </c>
       <c r="J28" s="42">
-        <f>SUM(J29:J50)</f>
+        <f t="shared" si="6"/>
         <v>186000000</v>
       </c>
       <c r="K28" s="42">
-        <f>SUM(K29:K50)</f>
+        <f t="shared" si="6"/>
         <v>154000000</v>
       </c>
       <c r="L28" s="42">
-        <f>SUM(L29:L50)</f>
+        <f t="shared" si="6"/>
         <v>16000000</v>
       </c>
       <c r="M28" s="42">
-        <f>SUM(M29:M50)</f>
+        <f t="shared" si="6"/>
         <v>16000000</v>
       </c>
       <c r="N28" s="42">
-        <f>SUM(N29:N50)</f>
+        <f t="shared" si="6"/>
         <v>16000000</v>
       </c>
       <c r="O28" s="42">
-        <f>SUM(O29:O50)</f>
+        <f t="shared" si="6"/>
         <v>16000000</v>
       </c>
       <c r="P28" s="42"/>
@@ -2295,7 +2304,7 @@
       <c r="A29" s="4">
         <v>3.1</v>
       </c>
-      <c r="B29" s="56" t="s">
+      <c r="B29" s="54" t="s">
         <v>61</v>
       </c>
       <c r="C29" s="5">
@@ -2307,27 +2316,27 @@
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
       <c r="G29" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H29" s="41"/>
-      <c r="I29" s="66"/>
-      <c r="J29" s="66"/>
-      <c r="K29" s="66"/>
-      <c r="L29" s="66"/>
-      <c r="M29" s="66"/>
-      <c r="N29" s="66"/>
-      <c r="O29" s="66"/>
-      <c r="P29" s="66"/>
-      <c r="Q29" s="66"/>
-      <c r="R29" s="66"/>
+      <c r="I29" s="62"/>
+      <c r="J29" s="62"/>
+      <c r="K29" s="62"/>
+      <c r="L29" s="62"/>
+      <c r="M29" s="62"/>
+      <c r="N29" s="62"/>
+      <c r="O29" s="62"/>
+      <c r="P29" s="62"/>
+      <c r="Q29" s="62"/>
+      <c r="R29" s="62"/>
       <c r="S29" s="6"/>
     </row>
     <row r="30" spans="1:19" ht="38">
       <c r="A30" s="4">
         <v>3.2</v>
       </c>
-      <c r="B30" s="56" t="s">
+      <c r="B30" s="54" t="s">
         <v>62</v>
       </c>
       <c r="C30" s="5">
@@ -2339,27 +2348,27 @@
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H30" s="41"/>
-      <c r="I30" s="66"/>
-      <c r="J30" s="66"/>
-      <c r="K30" s="66"/>
-      <c r="L30" s="66"/>
-      <c r="M30" s="66"/>
-      <c r="N30" s="66"/>
-      <c r="O30" s="66"/>
-      <c r="P30" s="66"/>
-      <c r="Q30" s="66"/>
-      <c r="R30" s="66"/>
+      <c r="I30" s="62"/>
+      <c r="J30" s="62"/>
+      <c r="K30" s="62"/>
+      <c r="L30" s="62"/>
+      <c r="M30" s="62"/>
+      <c r="N30" s="62"/>
+      <c r="O30" s="62"/>
+      <c r="P30" s="62"/>
+      <c r="Q30" s="62"/>
+      <c r="R30" s="62"/>
       <c r="S30" s="6"/>
     </row>
     <row r="31" spans="1:19" ht="38">
       <c r="A31" s="4">
         <v>3.3</v>
       </c>
-      <c r="B31" s="56" t="s">
+      <c r="B31" s="54" t="s">
         <v>63</v>
       </c>
       <c r="C31" s="5">
@@ -2371,27 +2380,27 @@
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
       <c r="G31" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H31" s="41"/>
-      <c r="I31" s="66"/>
-      <c r="J31" s="66"/>
-      <c r="K31" s="66"/>
-      <c r="L31" s="66"/>
-      <c r="M31" s="66"/>
-      <c r="N31" s="66"/>
-      <c r="O31" s="66"/>
-      <c r="P31" s="66"/>
-      <c r="Q31" s="66"/>
-      <c r="R31" s="66"/>
+      <c r="I31" s="62"/>
+      <c r="J31" s="62"/>
+      <c r="K31" s="62"/>
+      <c r="L31" s="62"/>
+      <c r="M31" s="62"/>
+      <c r="N31" s="62"/>
+      <c r="O31" s="62"/>
+      <c r="P31" s="62"/>
+      <c r="Q31" s="62"/>
+      <c r="R31" s="62"/>
       <c r="S31" s="6"/>
     </row>
     <row r="32" spans="1:19" ht="38">
       <c r="A32" s="4">
         <v>3.4</v>
       </c>
-      <c r="B32" s="56" t="s">
+      <c r="B32" s="54" t="s">
         <v>64</v>
       </c>
       <c r="C32" s="5">
@@ -2403,27 +2412,27 @@
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
       <c r="G32" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H32" s="41"/>
-      <c r="I32" s="66"/>
-      <c r="J32" s="66"/>
-      <c r="K32" s="66"/>
-      <c r="L32" s="66"/>
-      <c r="M32" s="66"/>
-      <c r="N32" s="66"/>
-      <c r="O32" s="66"/>
-      <c r="P32" s="66"/>
-      <c r="Q32" s="66"/>
-      <c r="R32" s="66"/>
+      <c r="I32" s="62"/>
+      <c r="J32" s="62"/>
+      <c r="K32" s="62"/>
+      <c r="L32" s="62"/>
+      <c r="M32" s="62"/>
+      <c r="N32" s="62"/>
+      <c r="O32" s="62"/>
+      <c r="P32" s="62"/>
+      <c r="Q32" s="62"/>
+      <c r="R32" s="62"/>
       <c r="S32" s="6"/>
     </row>
     <row r="33" spans="1:19" ht="38">
       <c r="A33" s="4">
         <v>3.5</v>
       </c>
-      <c r="B33" s="56" t="s">
+      <c r="B33" s="54" t="s">
         <v>65</v>
       </c>
       <c r="C33" s="5">
@@ -2435,27 +2444,27 @@
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
       <c r="G33" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H33" s="41"/>
-      <c r="I33" s="66"/>
-      <c r="J33" s="66"/>
-      <c r="K33" s="66"/>
-      <c r="L33" s="66"/>
-      <c r="M33" s="66"/>
-      <c r="N33" s="66"/>
-      <c r="O33" s="66"/>
-      <c r="P33" s="66"/>
-      <c r="Q33" s="66"/>
-      <c r="R33" s="66"/>
+      <c r="I33" s="62"/>
+      <c r="J33" s="62"/>
+      <c r="K33" s="62"/>
+      <c r="L33" s="62"/>
+      <c r="M33" s="62"/>
+      <c r="N33" s="62"/>
+      <c r="O33" s="62"/>
+      <c r="P33" s="62"/>
+      <c r="Q33" s="62"/>
+      <c r="R33" s="62"/>
       <c r="S33" s="6"/>
     </row>
     <row r="34" spans="1:19" ht="38">
       <c r="A34" s="4">
         <v>3.6</v>
       </c>
-      <c r="B34" s="56" t="s">
+      <c r="B34" s="54" t="s">
         <v>66</v>
       </c>
       <c r="C34" s="5">
@@ -2471,27 +2480,27 @@
         <v>77</v>
       </c>
       <c r="G34" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H34" s="41"/>
-      <c r="I34" s="66"/>
-      <c r="J34" s="66"/>
-      <c r="K34" s="66"/>
-      <c r="L34" s="66"/>
-      <c r="M34" s="66"/>
-      <c r="N34" s="66"/>
-      <c r="O34" s="66"/>
-      <c r="P34" s="66"/>
-      <c r="Q34" s="66"/>
-      <c r="R34" s="66"/>
+      <c r="I34" s="62"/>
+      <c r="J34" s="62"/>
+      <c r="K34" s="62"/>
+      <c r="L34" s="62"/>
+      <c r="M34" s="62"/>
+      <c r="N34" s="62"/>
+      <c r="O34" s="62"/>
+      <c r="P34" s="62"/>
+      <c r="Q34" s="62"/>
+      <c r="R34" s="62"/>
       <c r="S34" s="6"/>
     </row>
     <row r="35" spans="1:19" ht="38">
       <c r="A35" s="4">
         <v>3.7</v>
       </c>
-      <c r="B35" s="56" t="s">
+      <c r="B35" s="54" t="s">
         <v>67</v>
       </c>
       <c r="C35" s="5">
@@ -2503,59 +2512,59 @@
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
       <c r="G35" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H35" s="41"/>
-      <c r="I35" s="66"/>
-      <c r="J35" s="66"/>
-      <c r="K35" s="66"/>
-      <c r="L35" s="66"/>
-      <c r="M35" s="66"/>
-      <c r="N35" s="66"/>
-      <c r="O35" s="66"/>
-      <c r="P35" s="66"/>
-      <c r="Q35" s="66"/>
-      <c r="R35" s="66"/>
+      <c r="I35" s="62"/>
+      <c r="J35" s="62"/>
+      <c r="K35" s="62"/>
+      <c r="L35" s="62"/>
+      <c r="M35" s="62"/>
+      <c r="N35" s="62"/>
+      <c r="O35" s="62"/>
+      <c r="P35" s="62"/>
+      <c r="Q35" s="62"/>
+      <c r="R35" s="62"/>
       <c r="S35" s="6"/>
     </row>
     <row r="36" spans="1:19" ht="25" customHeight="1">
       <c r="A36" s="4">
         <v>3.8</v>
       </c>
-      <c r="B36" s="56" t="s">
+      <c r="B36" s="54" t="s">
         <v>73</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
-      <c r="E36" s="56">
+      <c r="E36" s="54">
         <v>6</v>
       </c>
-      <c r="F36" s="56" t="s">
+      <c r="F36" s="54" t="s">
         <v>82</v>
       </c>
       <c r="G36" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H36" s="41"/>
-      <c r="I36" s="66"/>
-      <c r="J36" s="66"/>
-      <c r="K36" s="66"/>
-      <c r="L36" s="66"/>
-      <c r="M36" s="66"/>
-      <c r="N36" s="66"/>
-      <c r="O36" s="66"/>
-      <c r="P36" s="66"/>
-      <c r="Q36" s="66"/>
-      <c r="R36" s="66"/>
+      <c r="I36" s="62"/>
+      <c r="J36" s="62"/>
+      <c r="K36" s="62"/>
+      <c r="L36" s="62"/>
+      <c r="M36" s="62"/>
+      <c r="N36" s="62"/>
+      <c r="O36" s="62"/>
+      <c r="P36" s="62"/>
+      <c r="Q36" s="62"/>
+      <c r="R36" s="62"/>
       <c r="S36" s="6"/>
     </row>
     <row r="37" spans="1:19" ht="38">
       <c r="A37" s="4">
         <v>3.9</v>
       </c>
-      <c r="B37" s="56" t="s">
+      <c r="B37" s="72" t="s">
         <v>74</v>
       </c>
       <c r="C37" s="5"/>
@@ -2567,27 +2576,27 @@
         <v>83</v>
       </c>
       <c r="G37" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H37" s="41"/>
-      <c r="I37" s="66"/>
-      <c r="J37" s="66"/>
-      <c r="K37" s="66"/>
-      <c r="L37" s="66"/>
-      <c r="M37" s="66"/>
-      <c r="N37" s="66"/>
-      <c r="O37" s="66"/>
-      <c r="P37" s="66"/>
-      <c r="Q37" s="66"/>
-      <c r="R37" s="66"/>
+      <c r="I37" s="62"/>
+      <c r="J37" s="62"/>
+      <c r="K37" s="62"/>
+      <c r="L37" s="62"/>
+      <c r="M37" s="62"/>
+      <c r="N37" s="62"/>
+      <c r="O37" s="62"/>
+      <c r="P37" s="62"/>
+      <c r="Q37" s="62"/>
+      <c r="R37" s="62"/>
       <c r="S37" s="6"/>
     </row>
     <row r="38" spans="1:19" ht="38">
-      <c r="A38" s="65" t="s">
+      <c r="A38" s="61" t="s">
         <v>93</v>
       </c>
-      <c r="B38" s="56" t="s">
+      <c r="B38" s="54" t="s">
         <v>75</v>
       </c>
       <c r="C38" s="5"/>
@@ -2599,27 +2608,27 @@
         <v>84</v>
       </c>
       <c r="G38" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H38" s="41"/>
-      <c r="I38" s="66"/>
-      <c r="J38" s="66"/>
-      <c r="K38" s="66"/>
-      <c r="L38" s="66"/>
-      <c r="M38" s="66"/>
-      <c r="N38" s="66"/>
-      <c r="O38" s="66"/>
-      <c r="P38" s="66"/>
-      <c r="Q38" s="66"/>
-      <c r="R38" s="66"/>
+      <c r="I38" s="62"/>
+      <c r="J38" s="62"/>
+      <c r="K38" s="62"/>
+      <c r="L38" s="62"/>
+      <c r="M38" s="62"/>
+      <c r="N38" s="62"/>
+      <c r="O38" s="62"/>
+      <c r="P38" s="62"/>
+      <c r="Q38" s="62"/>
+      <c r="R38" s="62"/>
       <c r="S38" s="6"/>
     </row>
     <row r="39" spans="1:19">
-      <c r="A39" s="65" t="s">
+      <c r="A39" s="61" t="s">
         <v>94</v>
       </c>
-      <c r="B39" s="56" t="s">
+      <c r="B39" s="54" t="s">
         <v>76</v>
       </c>
       <c r="C39" s="5"/>
@@ -2631,27 +2640,27 @@
         <v>85</v>
       </c>
       <c r="G39" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H39" s="41"/>
-      <c r="I39" s="66"/>
-      <c r="J39" s="66"/>
-      <c r="K39" s="66"/>
-      <c r="L39" s="66"/>
-      <c r="M39" s="66"/>
-      <c r="N39" s="66"/>
-      <c r="O39" s="66"/>
-      <c r="P39" s="66"/>
-      <c r="Q39" s="66"/>
-      <c r="R39" s="66"/>
+      <c r="I39" s="62"/>
+      <c r="J39" s="62"/>
+      <c r="K39" s="62"/>
+      <c r="L39" s="62"/>
+      <c r="M39" s="62"/>
+      <c r="N39" s="62"/>
+      <c r="O39" s="62"/>
+      <c r="P39" s="62"/>
+      <c r="Q39" s="62"/>
+      <c r="R39" s="62"/>
       <c r="S39" s="6"/>
     </row>
     <row r="40" spans="1:19">
       <c r="A40" s="4">
         <v>3.12</v>
       </c>
-      <c r="B40" s="56" t="s">
+      <c r="B40" s="54" t="s">
         <v>78</v>
       </c>
       <c r="C40" s="5"/>
@@ -2663,27 +2672,27 @@
         <v>86</v>
       </c>
       <c r="G40" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H40" s="41"/>
-      <c r="I40" s="66"/>
-      <c r="J40" s="66"/>
-      <c r="K40" s="66"/>
-      <c r="L40" s="66"/>
-      <c r="M40" s="66"/>
-      <c r="N40" s="66"/>
-      <c r="O40" s="66"/>
-      <c r="P40" s="66"/>
-      <c r="Q40" s="66"/>
-      <c r="R40" s="66"/>
+      <c r="I40" s="62"/>
+      <c r="J40" s="62"/>
+      <c r="K40" s="62"/>
+      <c r="L40" s="62"/>
+      <c r="M40" s="62"/>
+      <c r="N40" s="62"/>
+      <c r="O40" s="62"/>
+      <c r="P40" s="62"/>
+      <c r="Q40" s="62"/>
+      <c r="R40" s="62"/>
       <c r="S40" s="6"/>
     </row>
     <row r="41" spans="1:19">
-      <c r="A41" s="65" t="s">
+      <c r="A41" s="61" t="s">
         <v>95</v>
       </c>
-      <c r="B41" s="56" t="s">
+      <c r="B41" s="54" t="s">
         <v>79</v>
       </c>
       <c r="C41" s="5"/>
@@ -2695,27 +2704,27 @@
         <v>87</v>
       </c>
       <c r="G41" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H41" s="41"/>
-      <c r="I41" s="66"/>
-      <c r="J41" s="66"/>
-      <c r="K41" s="66"/>
-      <c r="L41" s="66"/>
-      <c r="M41" s="66"/>
-      <c r="N41" s="66"/>
-      <c r="O41" s="66"/>
-      <c r="P41" s="66"/>
-      <c r="Q41" s="66"/>
-      <c r="R41" s="66"/>
+      <c r="I41" s="62"/>
+      <c r="J41" s="62"/>
+      <c r="K41" s="62"/>
+      <c r="L41" s="62"/>
+      <c r="M41" s="62"/>
+      <c r="N41" s="62"/>
+      <c r="O41" s="62"/>
+      <c r="P41" s="62"/>
+      <c r="Q41" s="62"/>
+      <c r="R41" s="62"/>
       <c r="S41" s="6"/>
     </row>
     <row r="42" spans="1:19">
-      <c r="A42" s="65" t="s">
+      <c r="A42" s="61" t="s">
         <v>96</v>
       </c>
-      <c r="B42" s="56" t="s">
+      <c r="B42" s="54" t="s">
         <v>80</v>
       </c>
       <c r="C42" s="5"/>
@@ -2727,27 +2736,27 @@
         <v>88</v>
       </c>
       <c r="G42" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H42" s="41"/>
-      <c r="I42" s="66"/>
-      <c r="J42" s="66"/>
-      <c r="K42" s="66"/>
-      <c r="L42" s="66"/>
-      <c r="M42" s="66"/>
-      <c r="N42" s="66"/>
-      <c r="O42" s="66"/>
-      <c r="P42" s="66"/>
-      <c r="Q42" s="66"/>
-      <c r="R42" s="66"/>
+      <c r="I42" s="62"/>
+      <c r="J42" s="62"/>
+      <c r="K42" s="62"/>
+      <c r="L42" s="62"/>
+      <c r="M42" s="62"/>
+      <c r="N42" s="62"/>
+      <c r="O42" s="62"/>
+      <c r="P42" s="62"/>
+      <c r="Q42" s="62"/>
+      <c r="R42" s="62"/>
       <c r="S42" s="6"/>
     </row>
     <row r="43" spans="1:19">
-      <c r="A43" s="65" t="s">
+      <c r="A43" s="61" t="s">
         <v>97</v>
       </c>
-      <c r="B43" s="56" t="s">
+      <c r="B43" s="54" t="s">
         <v>81</v>
       </c>
       <c r="C43" s="5"/>
@@ -2759,27 +2768,27 @@
         <v>89</v>
       </c>
       <c r="G43" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H43" s="41"/>
-      <c r="I43" s="66"/>
-      <c r="J43" s="66"/>
-      <c r="K43" s="66"/>
-      <c r="L43" s="66"/>
-      <c r="M43" s="66"/>
-      <c r="N43" s="66"/>
-      <c r="O43" s="66"/>
-      <c r="P43" s="66"/>
-      <c r="Q43" s="66"/>
-      <c r="R43" s="66"/>
+      <c r="I43" s="62"/>
+      <c r="J43" s="62"/>
+      <c r="K43" s="62"/>
+      <c r="L43" s="62"/>
+      <c r="M43" s="62"/>
+      <c r="N43" s="62"/>
+      <c r="O43" s="62"/>
+      <c r="P43" s="62"/>
+      <c r="Q43" s="62"/>
+      <c r="R43" s="62"/>
       <c r="S43" s="6"/>
     </row>
     <row r="44" spans="1:19">
-      <c r="A44" s="65" t="s">
+      <c r="A44" s="61" t="s">
         <v>98</v>
       </c>
-      <c r="B44" s="56" t="s">
+      <c r="B44" s="54" t="s">
         <v>90</v>
       </c>
       <c r="C44" s="5"/>
@@ -2787,27 +2796,27 @@
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
       <c r="G44" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H44" s="41"/>
-      <c r="I44" s="66"/>
-      <c r="J44" s="66"/>
-      <c r="K44" s="66"/>
-      <c r="L44" s="66"/>
-      <c r="M44" s="66"/>
-      <c r="N44" s="66"/>
-      <c r="O44" s="66"/>
-      <c r="P44" s="66"/>
-      <c r="Q44" s="66"/>
-      <c r="R44" s="66"/>
+      <c r="I44" s="62"/>
+      <c r="J44" s="62"/>
+      <c r="K44" s="62"/>
+      <c r="L44" s="62"/>
+      <c r="M44" s="62"/>
+      <c r="N44" s="62"/>
+      <c r="O44" s="62"/>
+      <c r="P44" s="62"/>
+      <c r="Q44" s="62"/>
+      <c r="R44" s="62"/>
       <c r="S44" s="6"/>
     </row>
     <row r="45" spans="1:19">
-      <c r="A45" s="65" t="s">
+      <c r="A45" s="61" t="s">
         <v>99</v>
       </c>
-      <c r="B45" s="56" t="s">
+      <c r="B45" s="54" t="s">
         <v>107</v>
       </c>
       <c r="C45" s="5"/>
@@ -2815,30 +2824,30 @@
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
       <c r="G45" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>70000000</v>
       </c>
       <c r="H45" s="41">
         <v>10000000</v>
       </c>
-      <c r="I45" s="67">
+      <c r="I45" s="63">
         <v>30000000</v>
       </c>
-      <c r="J45" s="67">
+      <c r="J45" s="63">
         <v>30000000</v>
       </c>
-      <c r="K45" s="66"/>
-      <c r="L45" s="66"/>
-      <c r="M45" s="66"/>
-      <c r="N45" s="66"/>
-      <c r="O45" s="66"/>
-      <c r="P45" s="66"/>
-      <c r="Q45" s="66"/>
-      <c r="R45" s="66"/>
+      <c r="K45" s="62"/>
+      <c r="L45" s="62"/>
+      <c r="M45" s="62"/>
+      <c r="N45" s="62"/>
+      <c r="O45" s="62"/>
+      <c r="P45" s="62"/>
+      <c r="Q45" s="62"/>
+      <c r="R45" s="62"/>
       <c r="S45" s="6"/>
     </row>
     <row r="46" spans="1:19">
-      <c r="A46" s="65" t="s">
+      <c r="A46" s="61" t="s">
         <v>100</v>
       </c>
       <c r="B46" s="5" t="s">
@@ -2849,26 +2858,26 @@
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
       <c r="G46" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>8000000</v>
       </c>
       <c r="H46" s="41"/>
-      <c r="I46" s="66"/>
-      <c r="J46" s="66"/>
-      <c r="K46" s="67">
+      <c r="I46" s="62"/>
+      <c r="J46" s="62"/>
+      <c r="K46" s="63">
         <v>8000000</v>
       </c>
-      <c r="L46" s="66"/>
-      <c r="M46" s="66"/>
-      <c r="N46" s="66"/>
-      <c r="O46" s="66"/>
-      <c r="P46" s="66"/>
-      <c r="Q46" s="66"/>
-      <c r="R46" s="66"/>
+      <c r="L46" s="62"/>
+      <c r="M46" s="62"/>
+      <c r="N46" s="62"/>
+      <c r="O46" s="62"/>
+      <c r="P46" s="62"/>
+      <c r="Q46" s="62"/>
+      <c r="R46" s="62"/>
       <c r="S46" s="6"/>
     </row>
     <row r="47" spans="1:19">
-      <c r="A47" s="65" t="s">
+      <c r="A47" s="61" t="s">
         <v>101</v>
       </c>
       <c r="B47" s="5" t="s">
@@ -2879,81 +2888,81 @@
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
       <c r="G47" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>50000000</v>
       </c>
       <c r="H47" s="41"/>
-      <c r="I47" s="67">
+      <c r="I47" s="63">
         <v>20000000</v>
       </c>
-      <c r="J47" s="67">
+      <c r="J47" s="63">
         <v>20000000</v>
       </c>
-      <c r="K47" s="67">
+      <c r="K47" s="63">
         <v>10000000</v>
       </c>
-      <c r="L47" s="66"/>
-      <c r="M47" s="66"/>
-      <c r="N47" s="66"/>
-      <c r="O47" s="66"/>
-      <c r="P47" s="66"/>
-      <c r="Q47" s="66"/>
-      <c r="R47" s="66"/>
+      <c r="L47" s="62"/>
+      <c r="M47" s="62"/>
+      <c r="N47" s="62"/>
+      <c r="O47" s="62"/>
+      <c r="P47" s="62"/>
+      <c r="Q47" s="62"/>
+      <c r="R47" s="62"/>
       <c r="S47" s="6"/>
     </row>
     <row r="48" spans="1:19">
-      <c r="A48" s="65" t="s">
+      <c r="A48" s="61" t="s">
         <v>102</v>
       </c>
-      <c r="B48" s="56" t="s">
+      <c r="B48" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="C48" s="56"/>
-      <c r="D48" s="56"/>
-      <c r="E48" s="56"/>
-      <c r="F48" s="56"/>
+      <c r="C48" s="54"/>
+      <c r="D48" s="54"/>
+      <c r="E48" s="54"/>
+      <c r="F48" s="54"/>
       <c r="G48" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>295000000</v>
       </c>
       <c r="H48" s="41"/>
-      <c r="I48" s="67">
+      <c r="I48" s="63">
         <v>25000000</v>
       </c>
-      <c r="J48" s="67">
+      <c r="J48" s="63">
         <v>100000000</v>
       </c>
-      <c r="K48" s="67">
+      <c r="K48" s="63">
         <v>100000000</v>
       </c>
-      <c r="L48" s="67">
+      <c r="L48" s="63">
         <v>10000000</v>
       </c>
-      <c r="M48" s="67">
+      <c r="M48" s="63">
         <v>10000000</v>
       </c>
-      <c r="N48" s="67">
+      <c r="N48" s="63">
         <v>10000000</v>
       </c>
-      <c r="O48" s="67">
+      <c r="O48" s="63">
         <v>10000000</v>
       </c>
-      <c r="P48" s="67">
+      <c r="P48" s="63">
         <v>10000000</v>
       </c>
-      <c r="Q48" s="67">
+      <c r="Q48" s="63">
         <v>10000000</v>
       </c>
-      <c r="R48" s="67">
+      <c r="R48" s="63">
         <v>10000000</v>
       </c>
       <c r="S48" s="6"/>
     </row>
     <row r="49" spans="1:19">
-      <c r="A49" s="65" t="s">
+      <c r="A49" s="61" t="s">
         <v>103</v>
       </c>
-      <c r="B49" s="56" t="s">
+      <c r="B49" s="54" t="s">
         <v>111</v>
       </c>
       <c r="C49" s="5"/>
@@ -2961,28 +2970,28 @@
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
       <c r="G49" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>60000000</v>
       </c>
       <c r="H49" s="41"/>
-      <c r="I49" s="66"/>
-      <c r="J49" s="67">
+      <c r="I49" s="62"/>
+      <c r="J49" s="63">
         <v>30000000</v>
       </c>
-      <c r="K49" s="67">
+      <c r="K49" s="63">
         <v>30000000</v>
       </c>
-      <c r="L49" s="66"/>
-      <c r="M49" s="66"/>
-      <c r="N49" s="66"/>
-      <c r="O49" s="66"/>
-      <c r="P49" s="66"/>
-      <c r="Q49" s="66"/>
-      <c r="R49" s="66"/>
+      <c r="L49" s="62"/>
+      <c r="M49" s="62"/>
+      <c r="N49" s="62"/>
+      <c r="O49" s="62"/>
+      <c r="P49" s="62"/>
+      <c r="Q49" s="62"/>
+      <c r="R49" s="62"/>
       <c r="S49" s="6"/>
     </row>
     <row r="50" spans="1:19" ht="38">
-      <c r="A50" s="65" t="s">
+      <c r="A50" s="61" t="s">
         <v>105</v>
       </c>
       <c r="B50" s="5" t="s">
@@ -2993,38 +3002,38 @@
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
       <c r="G50" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>111000000</v>
       </c>
       <c r="H50" s="41"/>
-      <c r="I50" s="67">
+      <c r="I50" s="63">
         <v>3000000</v>
       </c>
-      <c r="J50" s="67">
+      <c r="J50" s="63">
         <v>6000000</v>
       </c>
-      <c r="K50" s="67">
+      <c r="K50" s="63">
         <v>6000000</v>
       </c>
-      <c r="L50" s="67">
+      <c r="L50" s="63">
         <v>6000000</v>
       </c>
-      <c r="M50" s="67">
+      <c r="M50" s="63">
         <v>6000000</v>
       </c>
-      <c r="N50" s="67">
+      <c r="N50" s="63">
         <v>6000000</v>
       </c>
-      <c r="O50" s="67">
+      <c r="O50" s="63">
         <v>6000000</v>
       </c>
-      <c r="P50" s="67">
+      <c r="P50" s="63">
         <v>6000000</v>
       </c>
-      <c r="Q50" s="67">
+      <c r="Q50" s="63">
         <v>6000000</v>
       </c>
-      <c r="R50" s="67">
+      <c r="R50" s="63">
         <v>60000000</v>
       </c>
       <c r="S50" s="6"/>
@@ -3041,39 +3050,39 @@
       <c r="E51" s="27"/>
       <c r="F51" s="27"/>
       <c r="G51" s="42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>16000000</v>
       </c>
       <c r="H51" s="42">
-        <f>SUM(H52:H60)</f>
+        <f t="shared" ref="H51:O51" si="7">SUM(H52:H60)</f>
         <v>0</v>
       </c>
       <c r="I51" s="42">
-        <f>SUM(I52:I60)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J51" s="42">
-        <f>SUM(J52:J60)</f>
+        <f t="shared" si="7"/>
         <v>8000000</v>
       </c>
       <c r="K51" s="42">
-        <f>SUM(K52:K60)</f>
+        <f t="shared" si="7"/>
         <v>8000000</v>
       </c>
       <c r="L51" s="42">
-        <f>SUM(L52:L60)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M51" s="42">
-        <f>SUM(M52:M60)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N51" s="42">
-        <f>SUM(N52:N60)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O51" s="42">
-        <f>SUM(O52:O60)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P51" s="42"/>
@@ -3088,7 +3097,7 @@
       <c r="A52" s="4">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B52" s="56" t="s">
+      <c r="B52" s="54" t="s">
         <v>119</v>
       </c>
       <c r="C52" s="6"/>
@@ -3099,17 +3108,17 @@
         <f>SUM(H52:R52)</f>
         <v>0</v>
       </c>
-      <c r="H52" s="66"/>
-      <c r="I52" s="66"/>
-      <c r="J52" s="66"/>
-      <c r="K52" s="66"/>
-      <c r="L52" s="66"/>
-      <c r="M52" s="66"/>
-      <c r="N52" s="66"/>
-      <c r="O52" s="66"/>
-      <c r="P52" s="66"/>
-      <c r="Q52" s="66"/>
-      <c r="R52" s="66"/>
+      <c r="H52" s="62"/>
+      <c r="I52" s="62"/>
+      <c r="J52" s="62"/>
+      <c r="K52" s="62"/>
+      <c r="L52" s="62"/>
+      <c r="M52" s="62"/>
+      <c r="N52" s="62"/>
+      <c r="O52" s="62"/>
+      <c r="P52" s="62"/>
+      <c r="Q52" s="62"/>
+      <c r="R52" s="62"/>
       <c r="S52" s="6"/>
     </row>
     <row r="53" spans="1:19">
@@ -3124,17 +3133,17 @@
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
       <c r="G53" s="41"/>
-      <c r="H53" s="66"/>
-      <c r="I53" s="66"/>
-      <c r="J53" s="66"/>
-      <c r="K53" s="66"/>
-      <c r="L53" s="66"/>
-      <c r="M53" s="66"/>
-      <c r="N53" s="66"/>
-      <c r="O53" s="66"/>
-      <c r="P53" s="66"/>
-      <c r="Q53" s="66"/>
-      <c r="R53" s="66"/>
+      <c r="H53" s="62"/>
+      <c r="I53" s="62"/>
+      <c r="J53" s="62"/>
+      <c r="K53" s="62"/>
+      <c r="L53" s="62"/>
+      <c r="M53" s="62"/>
+      <c r="N53" s="62"/>
+      <c r="O53" s="62"/>
+      <c r="P53" s="62"/>
+      <c r="Q53" s="62"/>
+      <c r="R53" s="62"/>
       <c r="S53" s="6"/>
     </row>
     <row r="54" spans="1:19">
@@ -3149,24 +3158,24 @@
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
       <c r="G54" s="41"/>
-      <c r="H54" s="66"/>
-      <c r="I54" s="66"/>
-      <c r="J54" s="66"/>
-      <c r="K54" s="66"/>
-      <c r="L54" s="66"/>
-      <c r="M54" s="66"/>
-      <c r="N54" s="66"/>
-      <c r="O54" s="66"/>
-      <c r="P54" s="66"/>
-      <c r="Q54" s="66"/>
-      <c r="R54" s="66"/>
+      <c r="H54" s="62"/>
+      <c r="I54" s="62"/>
+      <c r="J54" s="62"/>
+      <c r="K54" s="62"/>
+      <c r="L54" s="62"/>
+      <c r="M54" s="62"/>
+      <c r="N54" s="62"/>
+      <c r="O54" s="62"/>
+      <c r="P54" s="62"/>
+      <c r="Q54" s="62"/>
+      <c r="R54" s="62"/>
       <c r="S54" s="6"/>
     </row>
     <row r="55" spans="1:19">
       <c r="A55" s="4">
         <v>4.4000000000000004</v>
       </c>
-      <c r="B55" s="56" t="s">
+      <c r="B55" s="54" t="s">
         <v>120</v>
       </c>
       <c r="C55" s="6"/>
@@ -3177,17 +3186,17 @@
         <f>SUM(H55:R55)</f>
         <v>0</v>
       </c>
-      <c r="H55" s="66"/>
-      <c r="I55" s="66"/>
-      <c r="J55" s="66"/>
-      <c r="K55" s="66"/>
-      <c r="L55" s="66"/>
-      <c r="M55" s="66"/>
-      <c r="N55" s="66"/>
-      <c r="O55" s="66"/>
-      <c r="P55" s="66"/>
-      <c r="Q55" s="66"/>
-      <c r="R55" s="66"/>
+      <c r="H55" s="62"/>
+      <c r="I55" s="62"/>
+      <c r="J55" s="62"/>
+      <c r="K55" s="62"/>
+      <c r="L55" s="62"/>
+      <c r="M55" s="62"/>
+      <c r="N55" s="62"/>
+      <c r="O55" s="62"/>
+      <c r="P55" s="62"/>
+      <c r="Q55" s="62"/>
+      <c r="R55" s="62"/>
       <c r="S55" s="6"/>
     </row>
     <row r="56" spans="1:19">
@@ -3202,17 +3211,17 @@
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
       <c r="G56" s="41"/>
-      <c r="H56" s="66"/>
-      <c r="I56" s="66"/>
-      <c r="J56" s="66"/>
-      <c r="K56" s="66"/>
-      <c r="L56" s="66"/>
-      <c r="M56" s="66"/>
-      <c r="N56" s="66"/>
-      <c r="O56" s="66"/>
-      <c r="P56" s="66"/>
-      <c r="Q56" s="66"/>
-      <c r="R56" s="66"/>
+      <c r="H56" s="62"/>
+      <c r="I56" s="62"/>
+      <c r="J56" s="62"/>
+      <c r="K56" s="62"/>
+      <c r="L56" s="62"/>
+      <c r="M56" s="62"/>
+      <c r="N56" s="62"/>
+      <c r="O56" s="62"/>
+      <c r="P56" s="62"/>
+      <c r="Q56" s="62"/>
+      <c r="R56" s="62"/>
       <c r="S56" s="6"/>
     </row>
     <row r="57" spans="1:19">
@@ -3227,17 +3236,17 @@
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
       <c r="G57" s="41"/>
-      <c r="H57" s="66"/>
-      <c r="I57" s="66"/>
-      <c r="J57" s="66"/>
-      <c r="K57" s="66"/>
-      <c r="L57" s="66"/>
-      <c r="M57" s="66"/>
-      <c r="N57" s="66"/>
-      <c r="O57" s="66"/>
-      <c r="P57" s="66"/>
-      <c r="Q57" s="66"/>
-      <c r="R57" s="66"/>
+      <c r="H57" s="62"/>
+      <c r="I57" s="62"/>
+      <c r="J57" s="62"/>
+      <c r="K57" s="62"/>
+      <c r="L57" s="62"/>
+      <c r="M57" s="62"/>
+      <c r="N57" s="62"/>
+      <c r="O57" s="62"/>
+      <c r="P57" s="62"/>
+      <c r="Q57" s="62"/>
+      <c r="R57" s="62"/>
       <c r="S57" s="6"/>
     </row>
     <row r="58" spans="1:19">
@@ -3255,24 +3264,24 @@
         <f>SUM(H58:R58)</f>
         <v>0</v>
       </c>
-      <c r="H58" s="66"/>
-      <c r="I58" s="66"/>
-      <c r="J58" s="66"/>
-      <c r="K58" s="66"/>
-      <c r="L58" s="66"/>
-      <c r="M58" s="66"/>
-      <c r="N58" s="66"/>
-      <c r="O58" s="66"/>
-      <c r="P58" s="66"/>
-      <c r="Q58" s="66"/>
-      <c r="R58" s="66"/>
+      <c r="H58" s="62"/>
+      <c r="I58" s="62"/>
+      <c r="J58" s="62"/>
+      <c r="K58" s="62"/>
+      <c r="L58" s="62"/>
+      <c r="M58" s="62"/>
+      <c r="N58" s="62"/>
+      <c r="O58" s="62"/>
+      <c r="P58" s="62"/>
+      <c r="Q58" s="62"/>
+      <c r="R58" s="62"/>
       <c r="S58" s="6"/>
     </row>
     <row r="59" spans="1:19">
       <c r="A59" s="4">
         <v>4.8</v>
       </c>
-      <c r="B59" s="56" t="s">
+      <c r="B59" s="54" t="s">
         <v>113</v>
       </c>
       <c r="C59" s="6"/>
@@ -3280,28 +3289,28 @@
       <c r="E59" s="6"/>
       <c r="F59" s="6"/>
       <c r="G59" s="41"/>
-      <c r="H59" s="66"/>
-      <c r="I59" s="66"/>
-      <c r="J59" s="67">
+      <c r="H59" s="62"/>
+      <c r="I59" s="62"/>
+      <c r="J59" s="63">
         <v>8000000</v>
       </c>
-      <c r="K59" s="67">
+      <c r="K59" s="63">
         <v>8000000</v>
       </c>
-      <c r="L59" s="66"/>
-      <c r="M59" s="66"/>
-      <c r="N59" s="66"/>
-      <c r="O59" s="66"/>
-      <c r="P59" s="66"/>
-      <c r="Q59" s="66"/>
-      <c r="R59" s="66"/>
+      <c r="L59" s="62"/>
+      <c r="M59" s="62"/>
+      <c r="N59" s="62"/>
+      <c r="O59" s="62"/>
+      <c r="P59" s="62"/>
+      <c r="Q59" s="62"/>
+      <c r="R59" s="62"/>
       <c r="S59" s="6"/>
     </row>
     <row r="60" spans="1:19">
       <c r="A60" s="4">
         <v>4.9000000000000004</v>
       </c>
-      <c r="B60" s="56" t="s">
+      <c r="B60" s="54" t="s">
         <v>108</v>
       </c>
       <c r="C60" s="6"/>
@@ -3309,17 +3318,17 @@
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
       <c r="G60" s="41"/>
-      <c r="H60" s="66"/>
-      <c r="I60" s="66"/>
-      <c r="J60" s="66"/>
-      <c r="K60" s="66"/>
-      <c r="L60" s="66"/>
-      <c r="M60" s="66"/>
-      <c r="N60" s="66"/>
-      <c r="O60" s="66"/>
-      <c r="P60" s="66"/>
-      <c r="Q60" s="66"/>
-      <c r="R60" s="66"/>
+      <c r="H60" s="62"/>
+      <c r="I60" s="62"/>
+      <c r="J60" s="62"/>
+      <c r="K60" s="62"/>
+      <c r="L60" s="62"/>
+      <c r="M60" s="62"/>
+      <c r="N60" s="62"/>
+      <c r="O60" s="62"/>
+      <c r="P60" s="62"/>
+      <c r="Q60" s="62"/>
+      <c r="R60" s="62"/>
       <c r="S60" s="6"/>
     </row>
     <row r="61" spans="1:19" s="47" customFormat="1" ht="38">
@@ -3338,35 +3347,35 @@
         <v>1410000000</v>
       </c>
       <c r="H61" s="42">
-        <f>SUM(H62:H64)</f>
+        <f t="shared" ref="H61:O61" si="8">SUM(H62:H64)</f>
         <v>0</v>
       </c>
       <c r="I61" s="42">
-        <f>SUM(I62:I64)</f>
+        <f t="shared" si="8"/>
         <v>5000000</v>
       </c>
       <c r="J61" s="42">
-        <f>SUM(J62:J64)</f>
+        <f t="shared" si="8"/>
         <v>5000000</v>
       </c>
       <c r="K61" s="42">
-        <f>SUM(K62:K64)</f>
+        <f t="shared" si="8"/>
         <v>100000000</v>
       </c>
       <c r="L61" s="42">
-        <f>SUM(L62:L64)</f>
+        <f t="shared" si="8"/>
         <v>100000000</v>
       </c>
       <c r="M61" s="42">
-        <f>SUM(M62:M64)</f>
+        <f t="shared" si="8"/>
         <v>100000000</v>
       </c>
       <c r="N61" s="42">
-        <f>SUM(N62:N64)</f>
+        <f t="shared" si="8"/>
         <v>100000000</v>
       </c>
       <c r="O61" s="42">
-        <f>SUM(O62:O64)</f>
+        <f t="shared" si="8"/>
         <v>100000000</v>
       </c>
       <c r="P61" s="42"/>
@@ -3381,7 +3390,7 @@
       <c r="A62" s="4">
         <v>5.0999999999999996</v>
       </c>
-      <c r="B62" s="56" t="s">
+      <c r="B62" s="54" t="s">
         <v>115</v>
       </c>
       <c r="C62" s="6"/>
@@ -3389,34 +3398,34 @@
       <c r="E62" s="6"/>
       <c r="F62" s="6"/>
       <c r="G62" s="41">
-        <f t="shared" ref="G62:G64" si="3">SUM(H62:R62)</f>
+        <f t="shared" ref="G62:G64" si="9">SUM(H62:R62)</f>
         <v>750000000</v>
       </c>
-      <c r="H62" s="66"/>
-      <c r="I62" s="66"/>
-      <c r="J62" s="66"/>
-      <c r="K62" s="71">
+      <c r="H62" s="62"/>
+      <c r="I62" s="62"/>
+      <c r="J62" s="62"/>
+      <c r="K62" s="67">
         <v>50000000</v>
       </c>
-      <c r="L62" s="71">
+      <c r="L62" s="67">
         <v>50000000</v>
       </c>
-      <c r="M62" s="71">
+      <c r="M62" s="67">
         <v>50000000</v>
       </c>
-      <c r="N62" s="71">
+      <c r="N62" s="67">
         <v>50000000</v>
       </c>
-      <c r="O62" s="71">
+      <c r="O62" s="67">
         <v>50000000</v>
       </c>
-      <c r="P62" s="71">
+      <c r="P62" s="67">
         <v>50000000</v>
       </c>
-      <c r="Q62" s="71">
+      <c r="Q62" s="67">
         <v>50000000</v>
       </c>
-      <c r="R62" s="71">
+      <c r="R62" s="67">
         <v>400000000</v>
       </c>
       <c r="S62" s="6"/>
@@ -3425,7 +3434,7 @@
       <c r="A63" s="4">
         <v>5.2</v>
       </c>
-      <c r="B63" s="56" t="s">
+      <c r="B63" s="54" t="s">
         <v>116</v>
       </c>
       <c r="C63" s="6"/>
@@ -3433,34 +3442,34 @@
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
       <c r="G63" s="41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>850000000</v>
       </c>
-      <c r="H63" s="66"/>
-      <c r="I63" s="66"/>
-      <c r="J63" s="66"/>
-      <c r="K63" s="67">
+      <c r="H63" s="62"/>
+      <c r="I63" s="62"/>
+      <c r="J63" s="62"/>
+      <c r="K63" s="63">
         <v>50000000</v>
       </c>
-      <c r="L63" s="67">
+      <c r="L63" s="63">
         <v>50000000</v>
       </c>
-      <c r="M63" s="67">
+      <c r="M63" s="63">
         <v>50000000</v>
       </c>
-      <c r="N63" s="67">
+      <c r="N63" s="63">
         <v>50000000</v>
       </c>
-      <c r="O63" s="67">
+      <c r="O63" s="63">
         <v>50000000</v>
       </c>
-      <c r="P63" s="67">
+      <c r="P63" s="63">
         <v>50000000</v>
       </c>
-      <c r="Q63" s="67">
+      <c r="Q63" s="63">
         <v>50000000</v>
       </c>
-      <c r="R63" s="71">
+      <c r="R63" s="67">
         <v>500000000</v>
       </c>
       <c r="S63" s="6"/>
@@ -3469,7 +3478,7 @@
       <c r="A64" s="4">
         <v>5.3</v>
       </c>
-      <c r="B64" s="56" t="s">
+      <c r="B64" s="54" t="s">
         <v>114</v>
       </c>
       <c r="C64" s="6"/>
@@ -3477,24 +3486,24 @@
       <c r="E64" s="6"/>
       <c r="F64" s="6"/>
       <c r="G64" s="41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>10000000</v>
       </c>
-      <c r="H64" s="66"/>
-      <c r="I64" s="67">
+      <c r="H64" s="62"/>
+      <c r="I64" s="63">
         <v>5000000</v>
       </c>
-      <c r="J64" s="67">
+      <c r="J64" s="63">
         <v>5000000</v>
       </c>
-      <c r="K64" s="67"/>
-      <c r="L64" s="67"/>
-      <c r="M64" s="67"/>
-      <c r="N64" s="67"/>
-      <c r="O64" s="67"/>
-      <c r="P64" s="67"/>
-      <c r="Q64" s="67"/>
-      <c r="R64" s="67"/>
+      <c r="K64" s="63"/>
+      <c r="L64" s="63"/>
+      <c r="M64" s="63"/>
+      <c r="N64" s="63"/>
+      <c r="O64" s="63"/>
+      <c r="P64" s="63"/>
+      <c r="Q64" s="63"/>
+      <c r="R64" s="63"/>
       <c r="S64" s="6"/>
     </row>
     <row r="65" spans="1:19" s="47" customFormat="1" ht="38">
@@ -3565,55 +3574,55 @@
       <c r="S66" s="6"/>
     </row>
     <row r="67" spans="1:19" s="47" customFormat="1" ht="38">
-      <c r="A67" s="61">
+      <c r="A67" s="57">
         <v>7</v>
       </c>
-      <c r="B67" s="62" t="s">
+      <c r="B67" s="58" t="s">
         <v>106</v>
       </c>
-      <c r="C67" s="62"/>
-      <c r="D67" s="62"/>
-      <c r="E67" s="62"/>
-      <c r="F67" s="62"/>
+      <c r="C67" s="58"/>
+      <c r="D67" s="58"/>
+      <c r="E67" s="58"/>
+      <c r="F67" s="58"/>
       <c r="G67" s="42">
         <f>SUM(H67:R67)</f>
         <v>4900000000</v>
       </c>
-      <c r="H67" s="63"/>
-      <c r="I67" s="63">
+      <c r="H67" s="59"/>
+      <c r="I67" s="59">
         <v>400000000</v>
       </c>
-      <c r="J67" s="63">
+      <c r="J67" s="59">
         <v>500000000</v>
       </c>
-      <c r="K67" s="63">
+      <c r="K67" s="59">
         <v>500000000</v>
       </c>
-      <c r="L67" s="63">
+      <c r="L67" s="59">
         <v>500000000</v>
       </c>
-      <c r="M67" s="63">
+      <c r="M67" s="59">
         <v>500000000</v>
       </c>
-      <c r="N67" s="63">
+      <c r="N67" s="59">
         <v>500000000</v>
       </c>
-      <c r="O67" s="63">
+      <c r="O67" s="59">
         <v>500000000</v>
       </c>
-      <c r="P67" s="63">
+      <c r="P67" s="59">
         <v>500000000</v>
       </c>
-      <c r="Q67" s="63">
+      <c r="Q67" s="59">
         <v>500000000</v>
       </c>
-      <c r="R67" s="63">
+      <c r="R67" s="59">
         <v>500000000</v>
       </c>
-      <c r="S67" s="64"/>
+      <c r="S67" s="60"/>
     </row>
     <row r="68" spans="1:19">
-      <c r="A68" s="60"/>
+      <c r="A68" s="56"/>
       <c r="B68" s="9"/>
       <c r="C68" s="9"/>
       <c r="D68" s="9"/>
@@ -3653,43 +3662,43 @@
         <v>0</v>
       </c>
       <c r="I69" s="42">
-        <f t="shared" ref="I69:R69" si="4">SUM(I70:I71)</f>
+        <f t="shared" ref="I69:R69" si="10">SUM(I70:I71)</f>
         <v>0</v>
       </c>
       <c r="J69" s="42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>1000000000</v>
       </c>
       <c r="K69" s="42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>300000000</v>
       </c>
       <c r="L69" s="42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>125000000</v>
       </c>
       <c r="M69" s="42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>20000000</v>
       </c>
       <c r="N69" s="42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>20000000</v>
       </c>
       <c r="O69" s="42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>20000000</v>
       </c>
       <c r="P69" s="42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>20000000</v>
       </c>
       <c r="Q69" s="42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>20000000</v>
       </c>
       <c r="R69" s="42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>20000000</v>
       </c>
       <c r="S69" s="28"/>
@@ -3698,7 +3707,7 @@
       <c r="A70" s="4">
         <v>8.1</v>
       </c>
-      <c r="B70" s="56" t="s">
+      <c r="B70" s="54" t="s">
         <v>117</v>
       </c>
       <c r="C70" s="6"/>
@@ -3706,33 +3715,33 @@
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
       <c r="G70" s="43">
-        <f t="shared" ref="G70:G71" si="5">SUM(H70:R70)</f>
+        <f t="shared" ref="G70:G71" si="11">SUM(H70:R70)</f>
         <v>1400000000</v>
       </c>
-      <c r="H70" s="66"/>
-      <c r="I70" s="66"/>
-      <c r="J70" s="67">
+      <c r="H70" s="62"/>
+      <c r="I70" s="62"/>
+      <c r="J70" s="63">
         <v>1000000000</v>
       </c>
-      <c r="K70" s="67">
+      <c r="K70" s="63">
         <v>300000000</v>
       </c>
-      <c r="L70" s="67">
+      <c r="L70" s="63">
         <v>100000000</v>
       </c>
-      <c r="M70" s="66"/>
-      <c r="N70" s="66"/>
-      <c r="O70" s="66"/>
-      <c r="P70" s="66"/>
-      <c r="Q70" s="66"/>
-      <c r="R70" s="66"/>
+      <c r="M70" s="62"/>
+      <c r="N70" s="62"/>
+      <c r="O70" s="62"/>
+      <c r="P70" s="62"/>
+      <c r="Q70" s="62"/>
+      <c r="R70" s="62"/>
       <c r="S70" s="6"/>
     </row>
     <row r="71" spans="1:19">
       <c r="A71" s="8">
         <v>8.1999999999999993</v>
       </c>
-      <c r="B71" s="68" t="s">
+      <c r="B71" s="64" t="s">
         <v>118</v>
       </c>
       <c r="C71" s="10"/>
@@ -3740,32 +3749,32 @@
       <c r="E71" s="10"/>
       <c r="F71" s="10"/>
       <c r="G71" s="43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>145000000</v>
       </c>
-      <c r="H71" s="69"/>
-      <c r="I71" s="69"/>
-      <c r="J71" s="69"/>
-      <c r="K71" s="69"/>
-      <c r="L71" s="70">
+      <c r="H71" s="65"/>
+      <c r="I71" s="65"/>
+      <c r="J71" s="65"/>
+      <c r="K71" s="65"/>
+      <c r="L71" s="66">
         <v>25000000</v>
       </c>
-      <c r="M71" s="70">
+      <c r="M71" s="66">
         <v>20000000</v>
       </c>
-      <c r="N71" s="70">
+      <c r="N71" s="66">
         <v>20000000</v>
       </c>
-      <c r="O71" s="70">
+      <c r="O71" s="66">
         <v>20000000</v>
       </c>
-      <c r="P71" s="70">
+      <c r="P71" s="66">
         <v>20000000</v>
       </c>
-      <c r="Q71" s="70">
+      <c r="Q71" s="66">
         <v>20000000</v>
       </c>
-      <c r="R71" s="70">
+      <c r="R71" s="66">
         <v>20000000</v>
       </c>
       <c r="S71" s="10"/>
